--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8468666559765</v>
+        <v>39.27015933333333</v>
       </c>
       <c r="H2">
-        <v>11.8468666559765</v>
+        <v>117.810478</v>
       </c>
       <c r="I2">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="J2">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1253.170683854298</v>
+        <v>4596.358638110371</v>
       </c>
       <c r="R2">
-        <v>1253.170683854298</v>
+        <v>41367.22774299334</v>
       </c>
       <c r="S2">
-        <v>0.02470152453500836</v>
+        <v>0.07324858339319465</v>
       </c>
       <c r="T2">
-        <v>0.02470152453500836</v>
+        <v>0.07324858339319465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8468666559765</v>
+        <v>39.27015933333333</v>
       </c>
       <c r="H3">
-        <v>11.8468666559765</v>
+        <v>117.810478</v>
       </c>
       <c r="I3">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="J3">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>1202.353493076591</v>
+        <v>3989.064251165948</v>
       </c>
       <c r="R3">
-        <v>1202.353493076591</v>
+        <v>35901.57826049354</v>
       </c>
       <c r="S3">
-        <v>0.02369985564746704</v>
+        <v>0.06357060631423345</v>
       </c>
       <c r="T3">
-        <v>0.02369985564746704</v>
+        <v>0.06357060631423343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8468666559765</v>
+        <v>39.27015933333333</v>
       </c>
       <c r="H4">
-        <v>11.8468666559765</v>
+        <v>117.810478</v>
       </c>
       <c r="I4">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="J4">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1662.989079145574</v>
+        <v>5577.414646721767</v>
       </c>
       <c r="R4">
-        <v>1662.989079145574</v>
+        <v>50196.7318204959</v>
       </c>
       <c r="S4">
-        <v>0.03277954557125708</v>
+        <v>0.08888290797882134</v>
       </c>
       <c r="T4">
-        <v>0.03277954557125708</v>
+        <v>0.08888290797882134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>118.870759097905</v>
+        <v>119.3024773333333</v>
       </c>
       <c r="H5">
-        <v>118.870759097905</v>
+        <v>357.907432</v>
       </c>
       <c r="I5">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="J5">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>12574.2404970728</v>
+        <v>13963.70632429741</v>
       </c>
       <c r="R5">
-        <v>12574.2404970728</v>
+        <v>125673.3569186767</v>
       </c>
       <c r="S5">
-        <v>0.2478536357012739</v>
+        <v>0.2225286988471106</v>
       </c>
       <c r="T5">
-        <v>0.2478536357012739</v>
+        <v>0.2225286988471106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>118.870759097905</v>
+        <v>119.3024773333333</v>
       </c>
       <c r="H6">
-        <v>118.870759097905</v>
+        <v>357.907432</v>
       </c>
       <c r="I6">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="J6">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>12064.34381144397</v>
+        <v>12118.75010147916</v>
       </c>
       <c r="R6">
-        <v>12064.34381144397</v>
+        <v>109068.7509133124</v>
       </c>
       <c r="S6">
-        <v>0.2378029493481256</v>
+        <v>0.1931270702136552</v>
       </c>
       <c r="T6">
-        <v>0.2378029493481256</v>
+        <v>0.1931270702136552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>118.870759097905</v>
+        <v>119.3024773333333</v>
       </c>
       <c r="H7">
-        <v>118.870759097905</v>
+        <v>357.907432</v>
       </c>
       <c r="I7">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="J7">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>16686.33402823307</v>
+        <v>16944.14781516611</v>
       </c>
       <c r="R7">
-        <v>16686.33402823307</v>
+        <v>152497.330336495</v>
       </c>
       <c r="S7">
-        <v>0.3289080208372211</v>
+        <v>0.2700256707505445</v>
       </c>
       <c r="T7">
-        <v>0.3289080208372211</v>
+        <v>0.2700256707505445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.2140268601171</v>
+        <v>15.418477</v>
       </c>
       <c r="H8">
-        <v>15.2140268601171</v>
+        <v>46.255431</v>
       </c>
       <c r="I8">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="J8">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>1609.35148492216</v>
+        <v>1804.648902590551</v>
       </c>
       <c r="R8">
-        <v>1609.35148492216</v>
+        <v>16241.84012331496</v>
       </c>
       <c r="S8">
-        <v>0.03172228308755974</v>
+        <v>0.0287592823024762</v>
       </c>
       <c r="T8">
-        <v>0.03172228308755974</v>
+        <v>0.0287592823024762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.2140268601171</v>
+        <v>15.418477</v>
       </c>
       <c r="H9">
-        <v>15.2140268601171</v>
+        <v>46.255431</v>
       </c>
       <c r="I9">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="J9">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>1544.090844459249</v>
+        <v>1566.209469283142</v>
       </c>
       <c r="R9">
-        <v>1544.090844459249</v>
+        <v>14095.88522354827</v>
       </c>
       <c r="S9">
-        <v>0.03043591616856439</v>
+        <v>0.02495945898798738</v>
       </c>
       <c r="T9">
-        <v>0.03043591616856439</v>
+        <v>0.02495945898798738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.2140268601171</v>
+        <v>15.418477</v>
       </c>
       <c r="H10">
-        <v>15.2140268601171</v>
+        <v>46.255431</v>
       </c>
       <c r="I10">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="J10">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>2135.649978421801</v>
+        <v>2189.836784719846</v>
       </c>
       <c r="R10">
-        <v>2135.649978421801</v>
+        <v>19708.53106247861</v>
       </c>
       <c r="S10">
-        <v>0.04209626910352278</v>
+        <v>0.03489772121197675</v>
       </c>
       <c r="T10">
-        <v>0.04209626910352278</v>
+        <v>0.03489772121197675</v>
       </c>
     </row>
   </sheetData>
